--- a/Data/Tables/HarvestDefine.xlsx
+++ b/Data/Tables/HarvestDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="599"/>
+    <workbookView windowWidth="24750" windowHeight="11190" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
@@ -1307,17 +1307,17 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="16.2818181818182" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.42857142857143" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.28571428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.847619047619" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.2857142857143" style="3"/>
-    <col min="7" max="16384" width="16.2857142857143" style="4"/>
+    <col min="1" max="1" width="9.42727272727273" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.28181818181818" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7181818181818" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.8454545454545" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.2818181818182" style="3"/>
+    <col min="7" max="16384" width="16.2818181818182" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1371,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="13" spans="1:6">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="13" spans="1:6">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="13" spans="1:6">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="7" s="1" customFormat="1" ht="13" spans="1:4">
       <c r="A7" s="1">
         <v>4</v>
       </c>

--- a/Data/Tables/HarvestDefine.xlsx
+++ b/Data/Tables/HarvestDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11190" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
@@ -1307,17 +1307,17 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A4" sqref="A4:A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.2818181818182" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="16.2777777777778" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.42727272727273" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.28181818181818" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7181818181818" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.8454545454545" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.2818181818182" style="3"/>
-    <col min="7" max="16384" width="16.2818181818182" style="4"/>
+    <col min="1" max="1" width="9.42592592592593" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.27777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7222222222222" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.8425925925926" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.2777777777778" style="3"/>
+    <col min="7" max="16384" width="16.2777777777778" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1371,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:6">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:6">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:6">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -1431,9 +1431,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13" spans="1:4">
+    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:4">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>10004</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>10005</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>10006</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>10007</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10008</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>10009</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>10010</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>10011</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>10012</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>10013</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>10014</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>10015</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>10016</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>10017</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>10018</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>10019</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>10020</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>10021</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>10022</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>10023</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>10024</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>10025</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>10026</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>10027</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>10028</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>10029</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>10030</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>31</v>
+        <v>10031</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>32</v>
+        <v>10032</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>33</v>
+        <v>10033</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>10034</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>35</v>
+        <v>10035</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>10036</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>10037</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>38</v>
+        <v>10038</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>10039</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>10040</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>41</v>
+        <v>10041</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>42</v>
+        <v>10042</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>43</v>
+        <v>10043</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>10044</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>45</v>
+        <v>10045</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>10046</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>47</v>
+        <v>10047</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>48</v>
+        <v>10048</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>49</v>
+        <v>10049</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>50</v>
+        <v>10050</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>51</v>
+        <v>10051</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>52</v>
+        <v>10052</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>53</v>
+        <v>10053</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>54</v>
+        <v>10054</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>55</v>
+        <v>10055</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>

--- a/Data/Tables/HarvestDefine.xlsx
+++ b/Data/Tables/HarvestDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>描述</t>
   </si>
@@ -62,31 +62,52 @@
     <t>TradingPrice</t>
   </si>
   <si>
-    <t>收获农作物1</t>
-  </si>
-  <si>
-    <t>收获农作物1收获农作物1收获农作物1</t>
-  </si>
-  <si>
-    <t>农作物1</t>
-  </si>
-  <si>
-    <t>收获农作物2</t>
-  </si>
-  <si>
-    <t>收获农作物1收获农作物1收获农作物2</t>
-  </si>
-  <si>
-    <t>农作物2</t>
-  </si>
-  <si>
-    <t>收获农作物3</t>
-  </si>
-  <si>
-    <t>收获农作物1收获农作物1收获农作物3</t>
-  </si>
-  <si>
-    <t>农作物3</t>
+    <t>樱桃</t>
+  </si>
+  <si>
+    <t>好多樱桃</t>
+  </si>
+  <si>
+    <t>橙子</t>
+  </si>
+  <si>
+    <t>你站在这里不要动，我去给你买些橙子</t>
+  </si>
+  <si>
+    <t>猕猴桃</t>
+  </si>
+  <si>
+    <t>奇异果</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>医生最怕的东西</t>
+  </si>
+  <si>
+    <t>草莓</t>
+  </si>
+  <si>
+    <t>一兜草莓</t>
+  </si>
+  <si>
+    <t>菠萝</t>
+  </si>
+  <si>
+    <t>A pine,an apple</t>
+  </si>
+  <si>
+    <t>西瓜</t>
+  </si>
+  <si>
+    <t>一个大西瓜</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>神</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1328,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A58"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2777777777778" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1385,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2">
         <v>100</v>
@@ -1399,13 +1420,13 @@
         <v>10002</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2">
         <v>100</v>
@@ -1419,61 +1440,117 @@
         <v>10003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:4">
+    <row r="7" s="1" customFormat="1" ht="13.2" spans="1:6">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>10007</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10008</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
